--- a/processed_data/Affinity Benchmark v5.5(samples_deleted).xlsx
+++ b/processed_data/Affinity Benchmark v5.5(samples_deleted).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="435">
   <si>
     <t>Reason for Deletion</t>
   </si>
@@ -124,6 +124,9 @@
     <t>6BPC</t>
   </si>
   <si>
+    <t>6OC3</t>
+  </si>
+  <si>
     <t>1CLV</t>
   </si>
   <si>
@@ -220,6 +223,9 @@
     <t>3EO1</t>
   </si>
   <si>
+    <t>3RJQ</t>
+  </si>
+  <si>
     <t>4M3K</t>
   </si>
   <si>
@@ -364,6 +370,9 @@
     <t>6BPB_AB</t>
   </si>
   <si>
+    <t>6OBZ_HL</t>
+  </si>
+  <si>
     <t>1JAE_A</t>
   </si>
   <si>
@@ -460,6 +469,9 @@
     <t>3EO0_AB</t>
   </si>
   <si>
+    <t>3R0M_A</t>
+  </si>
+  <si>
     <t>4M3J_A</t>
   </si>
   <si>
@@ -574,6 +586,9 @@
     <t>4F7</t>
   </si>
   <si>
+    <t>FluA-20</t>
+  </si>
+  <si>
     <t>α-amylase</t>
   </si>
   <si>
@@ -670,6 +685,9 @@
     <t>GC-1008  FAB fragment</t>
   </si>
   <si>
+    <t>A12</t>
+  </si>
+  <si>
     <t>cAb-H7S</t>
   </si>
   <si>
@@ -784,6 +802,9 @@
     <t>5W53_A</t>
   </si>
   <si>
+    <t>6CHX_A</t>
+  </si>
+  <si>
     <t>1QFD_A(1)</t>
   </si>
   <si>
@@ -880,6 +901,9 @@
     <t>1TGJ_AB</t>
   </si>
   <si>
+    <t>3TGR_A</t>
+  </si>
+  <si>
     <t>4BLM_A</t>
   </si>
   <si>
@@ -1003,6 +1027,9 @@
     <t>Plasmodium vivax reticulocyte-binding protein 2b</t>
   </si>
   <si>
+    <t>H1 hemagglutinin head</t>
+  </si>
+  <si>
     <t>α-amylase inhibitor</t>
   </si>
   <si>
@@ -1099,6 +1126,9 @@
     <t>Transforming Growth Factor-Beta 3</t>
   </si>
   <si>
+    <t>C1086 HIV gp120</t>
+  </si>
+  <si>
     <t>B. licheniformis beta-lactamase</t>
   </si>
   <si>
@@ -1256,6 +1286,9 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
   <si>
     <t>I</t>
@@ -1643,7 +1676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA77"/>
+  <dimension ref="A1:AA79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1740,19 +1773,19 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H2" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="L2">
         <v>1.07</v>
@@ -1764,13 +1797,13 @@
         <v>3</v>
       </c>
       <c r="R2" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="S2" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="T2" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -1784,19 +1817,19 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G3" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="H3" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="L3">
         <v>0.73</v>
@@ -1808,13 +1841,13 @@
         <v>5</v>
       </c>
       <c r="R3" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="S3" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="T3" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -1828,19 +1861,19 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G4" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H4" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="L4">
         <v>1.22</v>
@@ -1852,13 +1885,13 @@
         <v>5.5</v>
       </c>
       <c r="R4" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="S4" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="T4" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -1872,19 +1905,19 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H5" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="L5">
         <v>0.29</v>
@@ -1896,13 +1929,13 @@
         <v>5.5</v>
       </c>
       <c r="R5" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="S5" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="T5" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -1916,19 +1949,19 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="H6" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="L6">
         <v>0.9</v>
@@ -1940,13 +1973,13 @@
         <v>5.5</v>
       </c>
       <c r="R6" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="S6" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="T6" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1960,19 +1993,19 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="H7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="L7">
         <v>0.57</v>
@@ -1984,13 +2017,13 @@
         <v>5.5</v>
       </c>
       <c r="R7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="S7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="T7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -2004,19 +2037,19 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G8" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H8" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L8">
         <v>1.25</v>
@@ -2028,13 +2061,13 @@
         <v>5.5</v>
       </c>
       <c r="R8" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="S8" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="T8" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -2048,19 +2081,19 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G9" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H9" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="L9">
         <v>0.95</v>
@@ -2072,13 +2105,13 @@
         <v>5.5</v>
       </c>
       <c r="R9" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="S9" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="T9" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -2092,19 +2125,19 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G10" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H10" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="L10">
         <v>0.47</v>
@@ -2116,18 +2149,18 @@
         <v>5.5</v>
       </c>
       <c r="R10" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="S10" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="T10" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -2139,39 +2172,39 @@
         <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G11" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H11" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="L11">
-        <v>0.86</v>
+        <v>0.59</v>
       </c>
       <c r="M11">
-        <v>2087</v>
+        <v>1537</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="R11" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="S11" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="T11" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -2180,42 +2213,42 @@
         <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F12" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G12" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H12" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="L12">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="M12">
-        <v>1408</v>
+        <v>2087</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R12" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S12" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="T12" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -2224,42 +2257,42 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G13" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H13" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="L13">
-        <v>0.74</v>
+        <v>1.14</v>
       </c>
       <c r="M13">
-        <v>2407</v>
+        <v>1408</v>
       </c>
       <c r="Q13">
         <v>2</v>
       </c>
       <c r="R13" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="S13" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="T13" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -2268,86 +2301,86 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F14" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G14" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H14" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="L14">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="M14">
-        <v>1930</v>
+        <v>2407</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R14" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="S14" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="T14" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F15" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G15" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="H15" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="L15">
-        <v>0.47</v>
+        <v>0.7</v>
       </c>
       <c r="M15">
-        <v>1280</v>
+        <v>1930</v>
       </c>
       <c r="Q15">
         <v>4</v>
       </c>
       <c r="R15" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="S15" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="T15" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -2356,42 +2389,42 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F16" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G16" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H16" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="L16">
-        <v>0.86</v>
+        <v>0.47</v>
       </c>
       <c r="M16">
-        <v>2401</v>
+        <v>1280</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R16" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="S16" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="T16" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -2400,42 +2433,42 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G17" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H17" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="L17">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="M17">
-        <v>2022</v>
+        <v>2401</v>
       </c>
       <c r="Q17">
         <v>2</v>
       </c>
       <c r="R17" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="S17" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="T17" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -2447,39 +2480,39 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F18" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G18" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H18" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="L18">
-        <v>1.23</v>
+        <v>0.9</v>
       </c>
       <c r="M18">
-        <v>1346</v>
+        <v>2022</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="S18" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="T18" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -2488,42 +2521,42 @@
         <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G19" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H19" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L19">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="M19">
-        <v>1186</v>
+        <v>1346</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R19" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="S19" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="T19" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -2532,42 +2565,42 @@
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H20" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="L20">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M20">
-        <v>3027</v>
+        <v>1186</v>
       </c>
       <c r="Q20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R20" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="S20" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="T20" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -2576,42 +2609,42 @@
         <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G21" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H21" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="L21">
-        <v>0.72</v>
+        <v>1.39</v>
       </c>
       <c r="M21">
-        <v>2520</v>
+        <v>3027</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R21" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="S21" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="T21" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="1">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -2623,39 +2656,39 @@
         <v>103</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="H22" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="L22">
-        <v>1.37</v>
+        <v>0.72</v>
       </c>
       <c r="M22">
-        <v>1619</v>
+        <v>2520</v>
       </c>
       <c r="Q22">
         <v>3</v>
       </c>
       <c r="R22" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="S22" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="T22" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -2664,42 +2697,42 @@
         <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G23" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H23" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="L23">
-        <v>0.6</v>
+        <v>1.37</v>
       </c>
       <c r="M23">
-        <v>1377</v>
+        <v>1619</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R23" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S23" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="T23" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="1">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -2708,42 +2741,42 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F24" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G24" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="H24" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="L24">
-        <v>0.39</v>
+        <v>0.6</v>
       </c>
       <c r="M24">
-        <v>1211</v>
+        <v>1377</v>
       </c>
       <c r="Q24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R24" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="S24" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="T24" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="1">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -2752,42 +2785,42 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G25" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H25" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="L25">
-        <v>0.51</v>
+        <v>0.39</v>
       </c>
       <c r="M25">
-        <v>2020</v>
+        <v>1211</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R25" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="S25" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="T25" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="1">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -2799,39 +2832,39 @@
         <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F26" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G26" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H26" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="L26">
-        <v>0.68</v>
+        <v>0.51</v>
       </c>
       <c r="M26">
-        <v>1474</v>
+        <v>2020</v>
       </c>
       <c r="Q26">
         <v>5</v>
       </c>
       <c r="R26" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S26" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="T26" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2840,42 +2873,42 @@
         <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F27" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G27" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H27" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="L27">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="M27">
-        <v>1384</v>
+        <v>1474</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R27" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S27" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="T27" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="1">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2884,42 +2917,42 @@
         <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F28" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G28" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H28" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="L28">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="M28">
-        <v>1911</v>
+        <v>1384</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R28" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="S28" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="T28" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="1">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2928,42 +2961,42 @@
         <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F29" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G29" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H29" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="L29">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="M29">
-        <v>3558</v>
+        <v>1911</v>
       </c>
       <c r="Q29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R29" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="S29" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="T29" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="1">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2972,42 +3005,42 @@
         <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G30" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H30" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="L30">
-        <v>0.93</v>
+        <v>0.62</v>
       </c>
       <c r="M30">
-        <v>1354</v>
+        <v>3558</v>
       </c>
       <c r="Q30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R30" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="S30" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="T30" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="1">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -3016,42 +3049,42 @@
         <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G31" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H31" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="L31">
-        <v>0.34</v>
+        <v>0.93</v>
       </c>
       <c r="M31">
-        <v>800</v>
+        <v>1354</v>
       </c>
       <c r="Q31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R31" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="S31" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="T31" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="1">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -3060,42 +3093,42 @@
         <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F32" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G32" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H32" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="L32">
-        <v>0.93</v>
+        <v>0.34</v>
       </c>
       <c r="M32">
-        <v>2113</v>
+        <v>800</v>
       </c>
       <c r="Q32">
         <v>2</v>
       </c>
       <c r="R32" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="S32" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="T32" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="1">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -3107,39 +3140,39 @@
         <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F33" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G33" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="H33" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="L33">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="M33">
-        <v>2200</v>
+        <v>2113</v>
       </c>
       <c r="Q33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R33" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="S33" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="T33" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="1">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -3148,42 +3181,42 @@
         <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F34" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G34" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H34" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="L34">
-        <v>1.02</v>
+        <v>0.8</v>
       </c>
       <c r="M34">
-        <v>2069</v>
+        <v>2200</v>
       </c>
       <c r="Q34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R34" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="S34" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="T34" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="1">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -3192,42 +3225,42 @@
         <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F35" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G35" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H35" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="L35">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="M35">
-        <v>1583</v>
+        <v>2069</v>
       </c>
       <c r="Q35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R35" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="S35" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="T35" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="1">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -3236,42 +3269,42 @@
         <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F36" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G36" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H36" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="L36">
-        <v>0.37</v>
+        <v>1.1</v>
       </c>
       <c r="M36">
-        <v>1064</v>
+        <v>1583</v>
       </c>
       <c r="Q36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R36" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="S36" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="T36" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="1">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -3280,42 +3313,42 @@
         <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F37" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G37" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H37" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="L37">
-        <v>1.31</v>
+        <v>0.37</v>
       </c>
       <c r="M37">
-        <v>2189</v>
+        <v>1064</v>
       </c>
       <c r="Q37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R37" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S37" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="T37" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="1">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -3324,42 +3357,42 @@
         <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F38" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G38" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H38" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="L38">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="M38">
-        <v>1892</v>
+        <v>2189</v>
       </c>
       <c r="Q38">
         <v>4</v>
       </c>
       <c r="R38" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S38" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="T38" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="1">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -3368,42 +3401,42 @@
         <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F39" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G39" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="H39" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="L39">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="M39">
-        <v>2524</v>
+        <v>1892</v>
       </c>
       <c r="Q39">
         <v>4</v>
       </c>
       <c r="R39" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S39" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="T39" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="1">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -3412,42 +3445,42 @@
         <v>64</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F40" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G40" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H40" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="L40">
-        <v>0.54</v>
+        <v>1.08</v>
       </c>
       <c r="M40">
-        <v>1442</v>
+        <v>2524</v>
       </c>
       <c r="Q40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R40" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S40" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="T40" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="1">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -3456,42 +3489,42 @@
         <v>65</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F41" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G41" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H41" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L41">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="M41">
-        <v>1620</v>
+        <v>1442</v>
       </c>
       <c r="Q41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R41" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S41" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="T41" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="1">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -3500,130 +3533,130 @@
         <v>66</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E42" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F42" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G42" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="H42" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="L42">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M42">
-        <v>1291</v>
+        <v>1620</v>
       </c>
       <c r="Q42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R42" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="S42" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="T42" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="1">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F43" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G43" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="H43" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="L43">
-        <v>0.74</v>
+        <v>0.53</v>
       </c>
       <c r="M43">
-        <v>1177</v>
+        <v>1291</v>
       </c>
       <c r="Q43">
         <v>5</v>
       </c>
       <c r="R43" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="S43" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="T43" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="1">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F44" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G44" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="H44" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="L44">
-        <v>0.91</v>
+        <v>0.74</v>
       </c>
       <c r="M44">
-        <v>1126</v>
+        <v>1177</v>
       </c>
       <c r="Q44">
         <v>5</v>
       </c>
       <c r="R44" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="S44" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="T44" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="1">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -3632,42 +3665,42 @@
         <v>67</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F45" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G45" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H45" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="L45">
-        <v>1.37</v>
+        <v>0.91</v>
       </c>
       <c r="M45">
-        <v>1630</v>
+        <v>1126</v>
       </c>
       <c r="Q45">
         <v>5</v>
       </c>
       <c r="R45" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="S45" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="T45" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="1">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -3676,42 +3709,42 @@
         <v>68</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F46" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G46" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H46" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="L46">
-        <v>1.77</v>
+        <v>1.37</v>
       </c>
       <c r="M46">
-        <v>1588</v>
+        <v>1630</v>
       </c>
       <c r="Q46">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="R46" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="S46" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="T46" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="1">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -3720,42 +3753,42 @@
         <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F47" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G47" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H47" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L47">
-        <v>1.56</v>
+        <v>0.79</v>
       </c>
       <c r="M47">
-        <v>1341</v>
+        <v>1734</v>
       </c>
       <c r="Q47">
         <v>5.5</v>
       </c>
       <c r="R47" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="S47" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="T47" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="1">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -3764,42 +3797,42 @@
         <v>70</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F48" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G48" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H48" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="L48">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="M48">
-        <v>1623</v>
+        <v>1588</v>
       </c>
       <c r="Q48">
         <v>5.5</v>
       </c>
       <c r="R48" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="S48" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="T48" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="1">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -3808,42 +3841,42 @@
         <v>71</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E49" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F49" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G49" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="H49" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="L49">
-        <v>2.02</v>
+        <v>1.56</v>
       </c>
       <c r="M49">
-        <v>2053</v>
+        <v>1341</v>
       </c>
       <c r="Q49">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="R49" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="S49" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="T49" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="1">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -3852,42 +3885,42 @@
         <v>72</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E50" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F50" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G50" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H50" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="L50">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="M50">
-        <v>2599</v>
+        <v>1623</v>
       </c>
       <c r="Q50">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="R50" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="S50" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="T50" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="1">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
@@ -3896,42 +3929,42 @@
         <v>73</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E51" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F51" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G51" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H51" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="L51">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="M51">
-        <v>2478</v>
+        <v>2053</v>
       </c>
       <c r="Q51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R51" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="S51" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="T51" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="1">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
@@ -3940,42 +3973,42 @@
         <v>74</v>
       </c>
       <c r="D52" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E52" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="F52" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G52" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H52" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="L52">
-        <v>2.04</v>
+        <v>2.13</v>
       </c>
       <c r="M52">
-        <v>1695</v>
+        <v>2599</v>
       </c>
       <c r="Q52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R52" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S52" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="T52" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="1">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -3984,42 +4017,42 @@
         <v>75</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E53" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F53" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G53" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H53" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="L53">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="M53">
-        <v>1610</v>
+        <v>2478</v>
       </c>
       <c r="Q53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R53" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="S53" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="T53" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="1">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
@@ -4031,39 +4064,39 @@
         <v>104</v>
       </c>
       <c r="E54" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F54" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G54" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H54" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="L54">
-        <v>1.65</v>
+        <v>2.04</v>
       </c>
       <c r="M54">
-        <v>2287</v>
+        <v>1695</v>
       </c>
       <c r="Q54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R54" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S54" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="T54" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="1">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
@@ -4075,39 +4108,39 @@
         <v>105</v>
       </c>
       <c r="E55" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F55" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G55" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H55" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="L55">
-        <v>2.13</v>
+        <v>1.6</v>
       </c>
       <c r="M55">
-        <v>3635</v>
+        <v>1610</v>
       </c>
       <c r="Q55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R55" t="s">
         <v>406</v>
       </c>
       <c r="S55" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="T55" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="1">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -4116,42 +4149,42 @@
         <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F56" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G56" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H56" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="L56">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M56">
-        <v>1293</v>
+        <v>2287</v>
       </c>
       <c r="Q56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R56" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S56" t="s">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="T56" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="1">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -4160,42 +4193,42 @@
         <v>79</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E57" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F57" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G57" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="H57" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="L57">
-        <v>1.55</v>
+        <v>2.13</v>
       </c>
       <c r="M57">
-        <v>2384</v>
+        <v>3635</v>
       </c>
       <c r="Q57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R57" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="S57" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="T57" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="1">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -4204,42 +4237,42 @@
         <v>80</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E58" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="F58" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="G58" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H58" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="L58">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="M58">
-        <v>1574</v>
+        <v>1293</v>
       </c>
       <c r="Q58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R58" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S58" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="T58" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="1">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -4248,42 +4281,42 @@
         <v>81</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E59" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F59" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G59" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H59" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="M59">
-        <v>1461</v>
+        <v>2384</v>
       </c>
       <c r="Q59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R59" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S59" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="T59" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="1">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
@@ -4292,42 +4325,42 @@
         <v>82</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="F60" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="G60" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H60" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="L60">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="M60">
-        <v>1949</v>
+        <v>1574</v>
       </c>
       <c r="Q60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R60" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S60" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="T60" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="1">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -4336,42 +4369,42 @@
         <v>83</v>
       </c>
       <c r="D61" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E61" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F61" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G61" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H61" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="L61">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="M61">
-        <v>2038</v>
+        <v>1461</v>
       </c>
       <c r="Q61">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="R61" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="S61" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="T61" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="1">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
@@ -4380,42 +4413,42 @@
         <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E62" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F62" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G62" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H62" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="L62">
-        <v>3.41</v>
+        <v>1.62</v>
       </c>
       <c r="M62">
-        <v>1832</v>
+        <v>1949</v>
       </c>
       <c r="Q62">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R62" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="S62" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="T62" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="1">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -4424,42 +4457,42 @@
         <v>85</v>
       </c>
       <c r="D63" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E63" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F63" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G63" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H63" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="L63">
-        <v>2.51</v>
+        <v>2.27</v>
       </c>
       <c r="M63">
-        <v>2130</v>
+        <v>2038</v>
       </c>
       <c r="Q63">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="R63" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="S63" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="T63" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="1">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B64" t="s">
         <v>26</v>
@@ -4468,42 +4501,42 @@
         <v>86</v>
       </c>
       <c r="D64" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E64" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F64" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G64" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H64" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="L64">
-        <v>2.71</v>
+        <v>3.41</v>
       </c>
       <c r="M64">
-        <v>2026</v>
+        <v>1832</v>
       </c>
       <c r="Q64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R64" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="S64" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="T64" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="1">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -4512,42 +4545,42 @@
         <v>87</v>
       </c>
       <c r="D65" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E65" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F65" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G65" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H65" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="L65">
-        <v>2.79</v>
+        <v>2.51</v>
       </c>
       <c r="M65">
-        <v>1953</v>
+        <v>2130</v>
       </c>
       <c r="Q65">
         <v>4</v>
       </c>
       <c r="R65" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="S65" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="T65" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="1">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
@@ -4556,42 +4589,42 @@
         <v>88</v>
       </c>
       <c r="D66" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E66" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F66" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G66" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H66" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="L66">
-        <v>2.79</v>
+        <v>2.71</v>
       </c>
       <c r="M66">
-        <v>2306</v>
+        <v>2026</v>
       </c>
       <c r="Q66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R66" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="S66" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="T66" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="1">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -4600,42 +4633,42 @@
         <v>89</v>
       </c>
       <c r="D67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E67" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F67" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G67" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H67" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="L67">
-        <v>3.65</v>
+        <v>2.79</v>
       </c>
       <c r="M67">
-        <v>1897</v>
+        <v>1953</v>
       </c>
       <c r="Q67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R67" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="S67" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="T67" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="1">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -4644,42 +4677,42 @@
         <v>90</v>
       </c>
       <c r="D68" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E68" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F68" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G68" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H68" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="L68">
-        <v>3.79</v>
+        <v>2.79</v>
       </c>
       <c r="M68">
-        <v>3169</v>
+        <v>2306</v>
       </c>
       <c r="Q68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R68" t="s">
+        <v>409</v>
+      </c>
+      <c r="S68" t="s">
         <v>408</v>
       </c>
-      <c r="S68" t="s">
-        <v>398</v>
-      </c>
       <c r="T68" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="1">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
@@ -4688,25 +4721,25 @@
         <v>91</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E69" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F69" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G69" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H69" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="L69">
-        <v>5.79</v>
+        <v>3.65</v>
       </c>
       <c r="M69">
-        <v>6671</v>
+        <v>1897</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -4715,15 +4748,15 @@
         <v>409</v>
       </c>
       <c r="S69" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="T69" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="1">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
@@ -4735,39 +4768,39 @@
         <v>104</v>
       </c>
       <c r="E70" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F70" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G70" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="H70" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="L70">
-        <v>2.86</v>
+        <v>3.79</v>
       </c>
       <c r="M70">
-        <v>3163</v>
+        <v>3169</v>
       </c>
       <c r="Q70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R70" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="S70" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="T70" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="1">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -4776,42 +4809,42 @@
         <v>93</v>
       </c>
       <c r="D71" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E71" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F71" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G71" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H71" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="L71">
-        <v>6.18</v>
+        <v>5.79</v>
       </c>
       <c r="M71">
-        <v>3363</v>
+        <v>6671</v>
       </c>
       <c r="Q71">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R71" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="S71" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="T71" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="1">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
@@ -4823,39 +4856,39 @@
         <v>106</v>
       </c>
       <c r="E72" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F72" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G72" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H72" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="L72">
-        <v>8.380000000000001</v>
+        <v>2.86</v>
       </c>
       <c r="M72">
-        <v>3367</v>
+        <v>3163</v>
       </c>
       <c r="Q72">
         <v>3</v>
       </c>
       <c r="R72" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="S72" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="T72" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="1">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
@@ -4864,42 +4897,42 @@
         <v>95</v>
       </c>
       <c r="D73" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E73" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F73" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G73" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H73" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="L73">
-        <v>3.73</v>
+        <v>6.18</v>
       </c>
       <c r="M73">
-        <v>2986</v>
+        <v>3363</v>
       </c>
       <c r="Q73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R73" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="S73" t="s">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="T73" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="1">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -4908,42 +4941,42 @@
         <v>96</v>
       </c>
       <c r="D74" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E74" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F74" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G74" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H74" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="L74">
-        <v>4.25</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="M74">
-        <v>2614</v>
+        <v>3367</v>
       </c>
       <c r="Q74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R74" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="S74" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="T74" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="1">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -4952,42 +4985,42 @@
         <v>97</v>
       </c>
       <c r="D75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E75" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F75" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G75" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H75" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="L75">
-        <v>4.69</v>
+        <v>3.73</v>
       </c>
       <c r="M75">
-        <v>2745</v>
+        <v>2986</v>
       </c>
       <c r="Q75">
         <v>3</v>
       </c>
       <c r="R75" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S75" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="T75" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="1">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
@@ -4996,81 +5029,169 @@
         <v>98</v>
       </c>
       <c r="D76" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E76" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F76" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G76" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H76" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="L76">
-        <v>2.67</v>
+        <v>4.25</v>
       </c>
       <c r="M76">
-        <v>3008</v>
+        <v>2614</v>
       </c>
       <c r="Q76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R76" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="S76" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="T76" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="1">
+        <v>282</v>
+      </c>
+      <c r="B77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" t="s">
+        <v>99</v>
+      </c>
+      <c r="D77" t="s">
+        <v>107</v>
+      </c>
+      <c r="E77" t="s">
+        <v>179</v>
+      </c>
+      <c r="F77" t="s">
+        <v>251</v>
+      </c>
+      <c r="G77" t="s">
+        <v>325</v>
+      </c>
+      <c r="H77" t="s">
+        <v>400</v>
+      </c>
+      <c r="L77">
+        <v>4.69</v>
+      </c>
+      <c r="M77">
+        <v>2745</v>
+      </c>
+      <c r="Q77">
+        <v>3</v>
+      </c>
+      <c r="R77" t="s">
+        <v>408</v>
+      </c>
+      <c r="S77" t="s">
+        <v>409</v>
+      </c>
+      <c r="T77" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78" s="1">
+        <v>283</v>
+      </c>
+      <c r="B78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" t="s">
+        <v>100</v>
+      </c>
+      <c r="D78" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" t="s">
+        <v>180</v>
+      </c>
+      <c r="F78" t="s">
+        <v>252</v>
+      </c>
+      <c r="G78" t="s">
+        <v>326</v>
+      </c>
+      <c r="H78" t="s">
+        <v>401</v>
+      </c>
+      <c r="L78">
+        <v>2.67</v>
+      </c>
+      <c r="M78">
+        <v>3008</v>
+      </c>
+      <c r="Q78">
+        <v>4</v>
+      </c>
+      <c r="R78" t="s">
+        <v>408</v>
+      </c>
+      <c r="S78" t="s">
+        <v>404</v>
+      </c>
+      <c r="T78" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="A79" s="1">
         <v>284</v>
       </c>
-      <c r="B77" t="s">
-        <v>26</v>
-      </c>
-      <c r="C77" t="s">
-        <v>81</v>
-      </c>
-      <c r="D77" t="s">
-        <v>105</v>
-      </c>
-      <c r="E77" t="s">
-        <v>159</v>
-      </c>
-      <c r="F77" t="s">
-        <v>229</v>
-      </c>
-      <c r="G77" t="s">
-        <v>319</v>
-      </c>
-      <c r="H77" t="s">
-        <v>374</v>
-      </c>
-      <c r="L77">
+      <c r="B79" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" t="s">
+        <v>163</v>
+      </c>
+      <c r="F79" t="s">
+        <v>235</v>
+      </c>
+      <c r="G79" t="s">
+        <v>327</v>
+      </c>
+      <c r="H79" t="s">
+        <v>384</v>
+      </c>
+      <c r="L79">
         <v>4.37</v>
       </c>
-      <c r="M77">
+      <c r="M79">
         <v>1654</v>
       </c>
-      <c r="Q77">
+      <c r="Q79">
         <v>5</v>
       </c>
-      <c r="R77" t="s">
-        <v>398</v>
-      </c>
-      <c r="S77" t="s">
-        <v>399</v>
-      </c>
-      <c r="T77" t="s">
-        <v>423</v>
+      <c r="R79" t="s">
+        <v>408</v>
+      </c>
+      <c r="S79" t="s">
+        <v>409</v>
+      </c>
+      <c r="T79" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
